--- a/biology/Botanique/Casimir_Pyrame_de_Candolle/Casimir_Pyrame_de_Candolle.xlsx
+++ b/biology/Botanique/Casimir_Pyrame_de_Candolle/Casimir_Pyrame_de_Candolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne-Casimir-Pyramus de Candolle, né le 20 février 1836 à Genève et mort le 3 octobre 1918 à Chêne-Bougeries[1], est un botaniste suisse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Casimir-Pyramus de Candolle, né le 20 février 1836 à Genève et mort le 3 octobre 1918 à Chêne-Bougeries, est un botaniste suisse.
 Fils d'Alphonse Pyrame de Candolle (1806-1893) et petit-fils d'Augustin Pyrame de Candolle (1778-1841), il perpétue la tradition familiale et se consacre à la botanique.
 Il est coauteur, avec son père, de l'ouvrage Monographiae phanerogamarum, une suite de monographies complétant le Prodromus.
 </t>
@@ -513,7 +525,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(la) Alphonse de Candolle et Casimir de Candolle (9 vol.), Monographiae phanerogamarum : Prodromi nunc continuatio, nunc revisio, Paris, Sumptibus G. Masson, 1878-1896
 (la) Casimir de Candolle, « Meliaceæ costaricensis », Bulletin de l'Herbier Boissier, 2e série, vol. 5, no 5,‎ mai 1905, p. 417-427 (lire en ligne)</t>
